--- a/horarios_optimizados-890-push_gap_0.80.xlsx
+++ b/horarios_optimizados-890-push_gap_0.80.xlsx
@@ -618,18 +618,66 @@
       <c r="I5" s="4" t="inlineStr"/>
       <c r="J5" s="4" t="inlineStr"/>
       <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
@@ -638,26 +686,10 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
@@ -686,11 +718,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N6" s="4" t="inlineStr"/>
       <c r="O6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -701,13 +729,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
@@ -716,85 +772,25 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
       <c r="U7" s="4" t="inlineStr"/>
       <c r="V7" s="4" t="inlineStr"/>
       <c r="W7" s="4" t="inlineStr"/>
@@ -810,11 +806,7 @@
       <c r="C8" s="4" t="inlineStr"/>
       <c r="D8" s="4" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -835,11 +827,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -850,7 +838,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -871,11 +863,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
@@ -884,16 +896,8 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -920,21 +924,9 @@
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -970,9 +962,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W9" s="4" t="inlineStr"/>
       <c r="X9" s="4" t="inlineStr"/>
     </row>
@@ -1002,8 +1006,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="4" t="inlineStr"/>
       <c r="J10" s="5" t="inlineStr">
@@ -1061,21 +1073,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
+      <c r="W10" s="4" t="inlineStr"/>
       <c r="X10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1253,31 +1253,11 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1288,10 +1268,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1347,10 +1339,26 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1366,32 +1374,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1434,27 +1430,95 @@
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I17" s="4" t="inlineStr"/>
       <c r="J17" s="4" t="inlineStr"/>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr"/>
-      <c r="O17" s="4" t="inlineStr"/>
-      <c r="P17" s="4" t="inlineStr"/>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr"/>
-      <c r="W17" s="4" t="inlineStr"/>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1463,15 +1527,47 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1497,41 +1593,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
       <c r="W18" s="4" t="inlineStr"/>
       <c r="X18" s="4" t="inlineStr"/>
     </row>
@@ -1541,15 +1609,43 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G19" s="4" t="inlineStr"/>
       <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1575,41 +1671,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P19" s="4" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
       <c r="W19" s="4" t="inlineStr"/>
       <c r="X19" s="4" t="inlineStr"/>
     </row>
@@ -1649,7 +1717,11 @@
       <c r="I20" s="4" t="inlineStr"/>
       <c r="J20" s="4" t="inlineStr"/>
       <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1705,11 +1777,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="X20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1717,95 +1785,27 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
       <c r="I21" s="4" t="inlineStr"/>
       <c r="J21" s="4" t="inlineStr"/>
       <c r="K21" s="4" t="inlineStr"/>
       <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
       <c r="X21" s="4" t="inlineStr"/>
     </row>
@@ -1898,23 +1898,35 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1925,7 +1937,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr"/>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1951,31 +1967,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
       <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1994,66 +1990,18 @@
       <c r="I26" s="4" t="inlineStr"/>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
       <c r="X26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2062,10 +2010,26 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="inlineStr"/>
       <c r="H27" s="4" t="inlineStr"/>
@@ -2089,7 +2053,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2125,21 +2093,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
       <c r="X27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2148,30 +2104,22 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2187,11 +2135,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M28" s="4" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2237,11 +2181,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W28" s="4" t="inlineStr"/>
       <c r="X28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2256,21 +2196,9 @@
       <c r="E29" s="4" t="inlineStr"/>
       <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr"/>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2291,11 +2219,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O29" s="4" t="inlineStr"/>
       <c r="P29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2348,16 +2272,8 @@
       <c r="C30" s="4" t="inlineStr"/>
       <c r="D30" s="4" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2393,12 +2309,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr"/>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P30" s="4" t="inlineStr"/>
       <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2419,10 +2335,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2430,27 +2362,95 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I31" s="4" t="inlineStr"/>
       <c r="J31" s="4" t="inlineStr"/>
       <c r="K31" s="4" t="inlineStr"/>
       <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr"/>
-      <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W31" s="4" t="inlineStr"/>
       <c r="X31" s="4" t="inlineStr"/>
     </row>
@@ -2555,18 +2555,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Descanso</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2586,29 +2588,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -2629,29 +2631,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2672,26 +2662,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
@@ -2715,7 +2705,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2725,19 +2715,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2763,7 +2753,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2773,14 +2763,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2834,17 +2824,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2853,10 +2843,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -2877,17 +2867,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2896,10 +2886,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2920,17 +2910,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2951,20 +2953,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2984,20 +2996,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3027,19 +3049,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -3060,29 +3082,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3103,29 +3113,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3146,20 +3156,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3179,29 +3187,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
@@ -3222,29 +3230,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -3265,20 +3273,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3298,26 +3316,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
         <v>0.5</v>
@@ -3341,17 +3359,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
